--- a/data_output/prism_passive/all_passive_out_norm_elong_percent_SEE_Fuku_ind_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_norm_elong_percent_SEE_Fuku_ind_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11364" windowHeight="6744"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -356,7 +351,7 @@
       <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -518,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>86.066449160518658</v>
+        <v>86.066449294161757</v>
       </c>
       <c r="C2">
-        <v>75.056349503106844</v>
+        <v>75.056349551386106</v>
       </c>
       <c r="D2">
-        <v>62.695440089679586</v>
+        <v>62.695440166490847</v>
       </c>
       <c r="E2">
-        <v>40.018865602510559</v>
+        <v>40.018865699266684</v>
       </c>
       <c r="F2">
-        <v>69.799910571925238</v>
+        <v>69.799910571323394</v>
       </c>
       <c r="G2">
-        <v>86.513025205760584</v>
+        <v>86.513025245210329</v>
       </c>
       <c r="H2">
-        <v>69.342278670050348</v>
+        <v>69.342278850544645</v>
       </c>
       <c r="I2">
-        <v>66.064989603046385</v>
+        <v>66.064989603027954</v>
       </c>
       <c r="J2">
-        <v>65.922222803681876</v>
+        <v>65.922222838842004</v>
       </c>
       <c r="K2">
-        <v>86.860370685256299</v>
+        <v>86.860370725025277</v>
       </c>
       <c r="L2">
-        <v>93.194771838671358</v>
+        <v>93.194771882130837</v>
       </c>
       <c r="M2">
-        <v>114.33247263514936</v>
+        <v>114.33247273292841</v>
       </c>
       <c r="N2">
-        <v>68.211614764625693</v>
+        <v>68.211614801732026</v>
       </c>
       <c r="O2">
-        <v>59.926243119466974</v>
+        <v>59.926243201985187</v>
       </c>
       <c r="P2">
-        <v>57.995664042744821</v>
+        <v>57.995664113561595</v>
       </c>
       <c r="Q2">
-        <v>95.506847173553012</v>
+        <v>95.506847249753974</v>
       </c>
       <c r="R2">
-        <v>112.46873649044231</v>
+        <v>112.46873636924262</v>
       </c>
       <c r="S2">
-        <v>42.514506594080856</v>
+        <v>42.514506522891544</v>
       </c>
       <c r="T2">
-        <v>44.779250371360199</v>
+        <v>44.779250349507564</v>
       </c>
       <c r="U2">
-        <v>92.191370214496573</v>
+        <v>92.191370280452389</v>
       </c>
       <c r="V2">
-        <v>77.572676261782561</v>
+        <v>77.572676278362991</v>
       </c>
       <c r="W2">
-        <v>127.82138677349293</v>
+        <v>127.82138692108744</v>
       </c>
       <c r="X2">
-        <v>89.164019243525644</v>
+        <v>89.164019312295309</v>
       </c>
       <c r="Y2">
-        <v>28.048879688183963</v>
+        <v>28.04887980348958</v>
       </c>
       <c r="Z2">
-        <v>60.597217977223558</v>
+        <v>60.597218051959025</v>
       </c>
       <c r="AA2">
-        <v>47.281485416418974</v>
+        <v>47.281485521447934</v>
       </c>
       <c r="AB2">
-        <v>51.942774953293899</v>
+        <v>51.942775146598208</v>
       </c>
       <c r="AC2">
-        <v>90.400392022443015</v>
+        <v>90.400392022409576</v>
       </c>
       <c r="AD2">
-        <v>24.364518232153401</v>
+        <v>24.364518484749411</v>
       </c>
       <c r="AE2">
-        <v>69.616117595997594</v>
+        <v>69.616117666743733</v>
       </c>
       <c r="AF2">
-        <v>60.546508651798078</v>
+        <v>60.546508743591332</v>
       </c>
       <c r="AG2">
-        <v>53.416572039551212</v>
+        <v>53.416572071616464</v>
       </c>
       <c r="AH2">
-        <v>50.136654754620167</v>
+        <v>50.136654857355431</v>
       </c>
       <c r="AI2">
-        <v>55.190813219510339</v>
+        <v>55.190813321614442</v>
       </c>
       <c r="AJ2">
-        <v>67.061103008979913</v>
+        <v>67.061103096795662</v>
       </c>
       <c r="AK2">
-        <v>65.349625618460394</v>
+        <v>65.349625694167031</v>
       </c>
       <c r="AL2">
-        <v>100.13964962746709</v>
+        <v>100.13964967704221</v>
       </c>
       <c r="AM2">
-        <v>51.942629185741886</v>
+        <v>51.942629337250587</v>
       </c>
       <c r="AN2">
-        <v>57.982415281727008</v>
+        <v>57.982415363101772</v>
       </c>
       <c r="AO2">
-        <v>33.207875296978926</v>
+        <v>33.207875420165642</v>
       </c>
       <c r="AP2">
-        <v>50.637660514627711</v>
+        <v>50.637660607626934</v>
       </c>
       <c r="AQ2">
-        <v>95.896951629425359</v>
+        <v>95.896951660690334</v>
       </c>
       <c r="AR2">
-        <v>35.937583764530842</v>
+        <v>35.937583787303566</v>
       </c>
       <c r="AS2">
-        <v>41.405846877234453</v>
+        <v>41.405846961146523</v>
       </c>
       <c r="AT2">
-        <v>63.787722025409657</v>
+        <v>63.787722136700367</v>
       </c>
       <c r="AU2">
-        <v>45.454302455503552</v>
+        <v>45.454302503895576</v>
       </c>
       <c r="AV2">
-        <v>70.050000083401528</v>
+        <v>70.050000511667278</v>
       </c>
       <c r="AW2">
-        <v>76.108140218641196</v>
+        <v>76.108140317349125</v>
       </c>
       <c r="AX2">
-        <v>42.50138733475859</v>
+        <v>42.501387433718932</v>
       </c>
       <c r="AY2">
-        <v>23.068280737079576</v>
+        <v>23.068280812082822</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -673,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>78.818915642283599</v>
+        <v>78.818915976071153</v>
       </c>
       <c r="C3">
-        <v>74.692545554083011</v>
+        <v>74.692545641728614</v>
       </c>
       <c r="D3">
-        <v>46.234991471045305</v>
+        <v>46.23499175207494</v>
       </c>
       <c r="E3">
-        <v>52.181696280790611</v>
+        <v>52.18169632790778</v>
       </c>
       <c r="F3">
-        <v>76.749641351873947</v>
+        <v>76.749641460623621</v>
       </c>
       <c r="G3">
-        <v>59.311640935200302</v>
+        <v>59.311641033640285</v>
       </c>
       <c r="H3">
-        <v>94.5404877975608</v>
+        <v>94.540487768628566</v>
       </c>
       <c r="I3">
-        <v>84.459624171249132</v>
+        <v>84.459624213849679</v>
       </c>
       <c r="J3">
-        <v>56.13746166317258</v>
+        <v>56.137461773685281</v>
       </c>
       <c r="K3">
-        <v>-9.6393367620064456</v>
+        <v>-9.6393367376193311</v>
       </c>
       <c r="L3">
-        <v>57.175400138577551</v>
+        <v>57.175400205304157</v>
       </c>
       <c r="M3">
-        <v>90.254520762793902</v>
+        <v>90.254736832005619</v>
       </c>
       <c r="N3">
-        <v>68.661302480696264</v>
+        <v>68.661302490993805</v>
       </c>
       <c r="O3">
-        <v>143.18188738576256</v>
+        <v>143.18188739632481</v>
       </c>
       <c r="P3">
-        <v>51.894497455163304</v>
+        <v>51.894497569871056</v>
       </c>
       <c r="Q3">
-        <v>73.777746200046352</v>
+        <v>73.777746295038469</v>
       </c>
       <c r="R3">
-        <v>100.44052501862039</v>
+        <v>100.44052512420352</v>
       </c>
       <c r="S3">
-        <v>43.412013261155096</v>
+        <v>43.412013358571876</v>
       </c>
       <c r="T3">
-        <v>49.129511352083426</v>
+        <v>49.129511426069442</v>
       </c>
       <c r="U3">
-        <v>60.928200409066989</v>
+        <v>60.928200516290751</v>
       </c>
       <c r="V3">
-        <v>58.46922225059653</v>
+        <v>58.46922222411407</v>
       </c>
       <c r="W3">
-        <v>91.044921660362021</v>
+        <v>91.044921838134158</v>
       </c>
       <c r="X3">
-        <v>102.12399531483238</v>
+        <v>102.12399536418732</v>
       </c>
       <c r="Y3">
-        <v>16.101591572227562</v>
+        <v>16.101591749009792</v>
       </c>
       <c r="Z3">
-        <v>42.638997528409618</v>
+        <v>42.638997632630272</v>
       </c>
       <c r="AA3">
-        <v>47.658769983694697</v>
+        <v>47.658770069388176</v>
       </c>
       <c r="AB3">
-        <v>48.394772695887156</v>
+        <v>48.394772797315653</v>
       </c>
       <c r="AC3">
-        <v>47.364515339693362</v>
+        <v>47.364515437710608</v>
       </c>
       <c r="AD3">
-        <v>37.704274074367596</v>
+        <v>37.704274116278313</v>
       </c>
       <c r="AE3">
-        <v>45.587942241366093</v>
+        <v>45.587942330544593</v>
       </c>
       <c r="AF3">
-        <v>61.856973973655172</v>
+        <v>61.856974086974546</v>
       </c>
       <c r="AG3">
-        <v>71.316018295404078</v>
+        <v>71.316018380376846</v>
       </c>
       <c r="AH3">
-        <v>78.279201466883933</v>
+        <v>78.279201577147589</v>
       </c>
       <c r="AI3">
-        <v>5.440417781716131</v>
+        <v>5.4404177837135048</v>
       </c>
       <c r="AJ3">
-        <v>43.842893868801298</v>
+        <v>43.842893993857004</v>
       </c>
       <c r="AK3">
-        <v>57.152106744757191</v>
+        <v>57.15210683682399</v>
       </c>
       <c r="AL3">
-        <v>64.639784329611132</v>
+        <v>64.639784425829944</v>
       </c>
       <c r="AM3">
-        <v>53.637154792559997</v>
+        <v>53.63715506865119</v>
       </c>
       <c r="AN3">
-        <v>129.8588281109657</v>
+        <v>129.85882819427709</v>
       </c>
       <c r="AO3">
-        <v>40.18815585611005</v>
+        <v>40.188156034996652</v>
       </c>
       <c r="AP3">
-        <v>76.726025897373034</v>
+        <v>76.72602602794224</v>
       </c>
       <c r="AQ3">
-        <v>63.712182179668112</v>
+        <v>63.712182251647512</v>
       </c>
       <c r="AR3">
-        <v>31.648298021159516</v>
+        <v>31.648298088926531</v>
       </c>
       <c r="AS3">
-        <v>57.397441079345747</v>
+        <v>57.397441123486971</v>
       </c>
       <c r="AT3">
-        <v>40.678304958484333</v>
+        <v>40.678305083808134</v>
       </c>
       <c r="AU3">
-        <v>66.410892520973505</v>
+        <v>66.410892571163529</v>
       </c>
       <c r="AV3">
-        <v>73.143978768163436</v>
+        <v>73.143978978930164</v>
       </c>
       <c r="AW3">
-        <v>78.166122787629746</v>
+        <v>78.16612290249239</v>
       </c>
       <c r="AX3">
-        <v>72.977123688994212</v>
+        <v>72.977123743860176</v>
       </c>
       <c r="AY3">
-        <v>13.61565634025953</v>
+        <v>13.615656450881639</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_norm_elong_percent_SEE_Fuku_ind_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_norm_elong_percent_SEE_Fuku_ind_max.xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Subj</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>STR</t>
   </si>
 </sst>
 </file>
@@ -357,57 +351,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>13</v>
-      </c>
-      <c r="N1">
-        <v>15</v>
-      </c>
-      <c r="O1">
-        <v>16</v>
-      </c>
-      <c r="P1">
-        <v>18</v>
-      </c>
-      <c r="Q1">
-        <v>19</v>
-      </c>
-      <c r="R1">
-        <v>20</v>
-      </c>
       <c r="S1">
         <v>21</v>
       </c>
@@ -432,57 +375,6 @@
       <c r="Z1">
         <v>31</v>
       </c>
-      <c r="AA1">
-        <v>1</v>
-      </c>
-      <c r="AB1">
-        <v>2</v>
-      </c>
-      <c r="AC1">
-        <v>3</v>
-      </c>
-      <c r="AD1">
-        <v>4</v>
-      </c>
-      <c r="AE1">
-        <v>5</v>
-      </c>
-      <c r="AF1">
-        <v>6</v>
-      </c>
-      <c r="AG1">
-        <v>7</v>
-      </c>
-      <c r="AH1">
-        <v>8</v>
-      </c>
-      <c r="AI1">
-        <v>9</v>
-      </c>
-      <c r="AJ1">
-        <v>10</v>
-      </c>
-      <c r="AK1">
-        <v>11</v>
-      </c>
-      <c r="AL1">
-        <v>13</v>
-      </c>
-      <c r="AM1">
-        <v>15</v>
-      </c>
-      <c r="AN1">
-        <v>16</v>
-      </c>
-      <c r="AO1">
-        <v>18</v>
-      </c>
-      <c r="AP1">
-        <v>19</v>
-      </c>
-      <c r="AQ1">
-        <v>20</v>
-      </c>
       <c r="AR1">
         <v>21</v>
       </c>
@@ -509,62 +401,59 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2">
-        <v>86.066449294161757</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>75.056349551386106</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>62.695440166490847</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>40.018865699266684</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>69.799910571323394</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>86.513025245210329</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>69.342278850544645</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>66.064989603027954</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>65.922222838842004</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>86.860370725025277</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>93.194771882130837</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>114.33247273292841</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>68.211614801732026</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>59.926243201985187</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>57.995664113561595</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>95.506847249753974</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>112.46873636924262</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>42.514506522891544</v>
+        <v>64.311476518359029</v>
       </c>
       <c r="T2">
         <v>44.779250349507564</v>
@@ -588,55 +477,55 @@
         <v>60.597218051959025</v>
       </c>
       <c r="AA2">
-        <v>47.281485521447934</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>51.942775146598208</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>90.400392022409576</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>24.364518484749411</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>69.616117666743733</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>60.546508743591332</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>53.416572071616464</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>50.136654857355431</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>55.190813321614442</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>67.061103096795662</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>65.349625694167031</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>100.13964967704221</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>51.942629337250587</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>57.982415363101772</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>33.207875420165642</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>50.637660607626934</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>95.896951660690334</v>
+        <v>0</v>
       </c>
       <c r="AR2">
         <v>35.937583787303566</v>
@@ -664,59 +553,56 @@
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3">
-        <v>78.818915976071153</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>74.692545641728614</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>46.23499175207494</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>52.18169632790778</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>76.749641460623621</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>59.311641033640285</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>94.540487768628566</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>84.459624213849679</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>56.137461773685281</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>-9.6393367376193311</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>57.175400205304157</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>90.254736832005619</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>68.661302490993805</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>143.18188739632481</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>51.894497569871056</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>73.777746295038469</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>100.44052512420352</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>43.412013358571876</v>
@@ -743,55 +629,55 @@
         <v>42.638997632630272</v>
       </c>
       <c r="AA3">
-        <v>47.658770069388176</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>48.394772797315653</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>47.364515437710608</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>37.704274116278313</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>45.587942330544593</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>61.856974086974546</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>71.316018380376846</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>78.279201577147589</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>5.4404177837135048</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>43.842893993857004</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>57.15210683682399</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>64.639784425829944</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>53.63715506865119</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>129.85882819427709</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>40.188156034996652</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>76.72602602794224</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>63.712182251647512</v>
+        <v>0</v>
       </c>
       <c r="AR3">
         <v>31.648298088926531</v>

--- a/data_output/prism_passive/all_passive_out_norm_elong_percent_SEE_Fuku_ind_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_norm_elong_percent_SEE_Fuku_ind_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>91.654902732225665</v>
+        <v>57.774938684272904</v>
       </c>
       <c r="C2">
-        <v>83.196681513475738</v>
+        <v>60.281544889481289</v>
       </c>
       <c r="D2">
-        <v>51.024693426143585</v>
+        <v>53.223346562156046</v>
       </c>
       <c r="E2">
-        <v>75.176054195055229</v>
+        <v>70.799075920665231</v>
       </c>
       <c r="F2">
         <v>73.122639936359974</v>
@@ -673,16 +668,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>77.249139779881943</v>
+        <v>42.657777568082231</v>
       </c>
       <c r="C3">
-        <v>68.828802189612105</v>
+        <v>61.572680834779781</v>
       </c>
       <c r="D3">
-        <v>53.629520855277477</v>
+        <v>57.136207392154937</v>
       </c>
       <c r="E3">
-        <v>42.536705229409556</v>
+        <v>82.739096652589566</v>
       </c>
       <c r="F3">
         <v>76.301672241727246</v>

--- a/data_output/prism_passive/all_passive_out_norm_elong_percent_SEE_Fuku_ind_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_norm_elong_percent_SEE_Fuku_ind_max.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>91.654902732225665</v>
+        <v>85.66330624518065</v>
       </c>
       <c r="C2">
-        <v>83.196681513475738</v>
+        <v>60.660019053970352</v>
       </c>
       <c r="D2">
-        <v>51.024693426143585</v>
+        <v>49.234431821726488</v>
       </c>
       <c r="E2">
-        <v>75.176054195055229</v>
+        <v>57.114956082693503</v>
       </c>
       <c r="F2">
         <v>73.122639936359974</v>
@@ -670,16 +665,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>77.249139779881943</v>
+        <v>69.666806315350954</v>
       </c>
       <c r="C3">
-        <v>68.828802189612105</v>
+        <v>42.657777568082231</v>
       </c>
       <c r="D3">
-        <v>53.629520855277477</v>
+        <v>32.907222192793327</v>
       </c>
       <c r="E3">
-        <v>40.880485831968834</v>
+        <v>57.136207392154937</v>
       </c>
       <c r="F3">
         <v>76.301672241727246</v>

--- a/data_output/prism_passive/all_passive_out_norm_elong_percent_SEE_Fuku_ind_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_norm_elong_percent_SEE_Fuku_ind_max.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,16 +358,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -513,151 +513,151 @@
         <v>1</v>
       </c>
       <c r="B2">
+        <v>91.461098060969263</v>
+      </c>
+      <c r="C2">
+        <v>83.196681972331191</v>
+      </c>
+      <c r="D2">
+        <v>66.137244310882636</v>
+      </c>
+      <c r="E2">
+        <v>82.938717781854862</v>
+      </c>
+      <c r="F2">
+        <v>73.122639929260785</v>
+      </c>
+      <c r="G2">
+        <v>68.967046231588853</v>
+      </c>
+      <c r="H2">
+        <v>85.052784666719248</v>
+      </c>
+      <c r="I2">
+        <v>89.153338123841749</v>
+      </c>
+      <c r="J2">
+        <v>72.951320518074809</v>
+      </c>
+      <c r="K2">
+        <v>87.115138666449027</v>
+      </c>
+      <c r="L2">
+        <v>77.181453686874463</v>
+      </c>
+      <c r="M2">
+        <v>78.487371824256755</v>
+      </c>
+      <c r="N2">
         <v>85.66330624518065</v>
       </c>
-      <c r="C2">
+      <c r="O2">
         <v>60.660019053970352</v>
       </c>
-      <c r="D2">
+      <c r="P2">
+        <v>88.715055721133908</v>
+      </c>
+      <c r="Q2">
+        <v>82.066580605760691</v>
+      </c>
+      <c r="R2">
+        <v>60.281544889481289</v>
+      </c>
+      <c r="T2">
+        <v>85.068910159655502</v>
+      </c>
+      <c r="U2">
+        <v>56.297741107017664</v>
+      </c>
+      <c r="V2">
+        <v>62.69199240092599</v>
+      </c>
+      <c r="W2">
+        <v>66.642895973339705</v>
+      </c>
+      <c r="X2">
+        <v>78.195976973909694</v>
+      </c>
+      <c r="Y2">
+        <v>55.215079876971238</v>
+      </c>
+      <c r="Z2">
+        <v>31.934855364191648</v>
+      </c>
+      <c r="AA2">
+        <v>46.936994726188836</v>
+      </c>
+      <c r="AB2">
+        <v>26.558084326280827</v>
+      </c>
+      <c r="AC2">
+        <v>69.021708723902762</v>
+      </c>
+      <c r="AD2">
+        <v>55.345756764984863</v>
+      </c>
+      <c r="AE2">
+        <v>72.11033816639771</v>
+      </c>
+      <c r="AF2">
+        <v>63.355130488797819</v>
+      </c>
+      <c r="AG2">
+        <v>66.181740301550391</v>
+      </c>
+      <c r="AH2">
+        <v>58.202004276377018</v>
+      </c>
+      <c r="AI2">
+        <v>34.630231005074371</v>
+      </c>
+      <c r="AJ2">
+        <v>69.698752022340315</v>
+      </c>
+      <c r="AK2">
+        <v>71.313384340964177</v>
+      </c>
+      <c r="AL2">
+        <v>79.481305811693503</v>
+      </c>
+      <c r="AM2">
         <v>49.234431821726488</v>
       </c>
-      <c r="E2">
+      <c r="AN2">
         <v>57.114956082693503</v>
       </c>
-      <c r="F2">
-        <v>73.122639936359974</v>
-      </c>
-      <c r="G2">
-        <v>68.96704593516742</v>
-      </c>
-      <c r="H2">
-        <v>84.864218580593459</v>
-      </c>
-      <c r="I2">
-        <v>81.676093162094205</v>
-      </c>
-      <c r="J2">
-        <v>72.313758153774501</v>
-      </c>
-      <c r="K2">
-        <v>87.314174759278643</v>
-      </c>
-      <c r="L2">
-        <v>77.608417745715315</v>
-      </c>
-      <c r="M2">
-        <v>78.487371694055781</v>
-      </c>
-      <c r="N2">
-        <v>87.133486174642897</v>
-      </c>
-      <c r="O2">
-        <v>57.774938408445429</v>
-      </c>
-      <c r="P2">
-        <v>88.715055302046608</v>
-      </c>
-      <c r="Q2">
-        <v>82.066580265279853</v>
-      </c>
-      <c r="R2">
-        <v>60.28154528677041</v>
-      </c>
-      <c r="T2">
-        <v>85.068910265174509</v>
-      </c>
-      <c r="U2">
-        <v>57.626157605655891</v>
-      </c>
-      <c r="V2">
-        <v>66.204202136244277</v>
-      </c>
-      <c r="W2">
-        <v>65.760540419644286</v>
-      </c>
-      <c r="X2">
-        <v>81.389189323563969</v>
-      </c>
-      <c r="Y2">
-        <v>54.643540123988046</v>
-      </c>
-      <c r="Z2">
-        <v>31.934854842981782</v>
-      </c>
-      <c r="AA2">
-        <v>46.494322263198107</v>
-      </c>
-      <c r="AB2">
-        <v>26.558083828474121</v>
-      </c>
-      <c r="AC2">
-        <v>64.198352197520364</v>
-      </c>
-      <c r="AD2">
-        <v>33.007606454094464</v>
-      </c>
-      <c r="AE2">
-        <v>72.1103379373357</v>
-      </c>
-      <c r="AF2">
-        <v>63.355130188824823</v>
-      </c>
-      <c r="AG2">
-        <v>62.70369928711419</v>
-      </c>
-      <c r="AH2">
-        <v>53.083468812692857</v>
-      </c>
-      <c r="AI2">
-        <v>33.461832694759877</v>
-      </c>
-      <c r="AJ2">
-        <v>71.396283975004664</v>
-      </c>
-      <c r="AK2">
-        <v>68.876703662215263</v>
-      </c>
-      <c r="AL2">
-        <v>79.481305557726117</v>
-      </c>
-      <c r="AM2">
-        <v>49.147285677275825</v>
-      </c>
-      <c r="AN2">
-        <v>53.223346168113828</v>
-      </c>
       <c r="AO2">
-        <v>49.473028376302672</v>
+        <v>49.473028842875863</v>
       </c>
       <c r="AP2">
-        <v>60.367324525429424</v>
+        <v>60.367324933915114</v>
       </c>
       <c r="AQ2">
-        <v>70.799075801352814</v>
+        <v>70.799075920665231</v>
       </c>
       <c r="AR2">
-        <v>70.623404600614876</v>
+        <v>78.270742690206006</v>
       </c>
       <c r="AS2">
-        <v>67.554622882303889</v>
+        <v>67.554623276407696</v>
       </c>
       <c r="AT2">
-        <v>32.343247302531758</v>
+        <v>32.652815348515809</v>
       </c>
       <c r="AU2">
-        <v>74.194686583128473</v>
+        <v>81.428701114775677</v>
       </c>
       <c r="AV2">
-        <v>35.800716655473209</v>
+        <v>33.058392934484374</v>
       </c>
       <c r="AW2">
-        <v>45.537490332260802</v>
+        <v>54.626470422966818</v>
       </c>
       <c r="AX2">
-        <v>42.328202721330477</v>
+        <v>42.106277232118181</v>
       </c>
       <c r="AY2">
-        <v>44.613730176189321</v>
+        <v>44.6137306716438</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -665,154 +665,154 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>77.249140429506937</v>
+      </c>
+      <c r="C3">
+        <v>75.052628315918696</v>
+      </c>
+      <c r="D3">
+        <v>53.629521998005714</v>
+      </c>
+      <c r="E3">
+        <v>40.88048645716399</v>
+      </c>
+      <c r="F3">
+        <v>78.782536362825013</v>
+      </c>
+      <c r="G3">
+        <v>70.308500926048708</v>
+      </c>
+      <c r="H3">
+        <v>79.267267221495544</v>
+      </c>
+      <c r="I3">
+        <v>84.519140475544802</v>
+      </c>
+      <c r="J3">
+        <v>64.533014575006689</v>
+      </c>
+      <c r="K3">
+        <v>69.839326467621618</v>
+      </c>
+      <c r="L3">
+        <v>71.777708828432765</v>
+      </c>
+      <c r="M3">
+        <v>73.93017340331771</v>
+      </c>
+      <c r="N3">
         <v>69.666806315350954</v>
       </c>
-      <c r="C3">
+      <c r="O3">
         <v>42.657777568082231</v>
       </c>
-      <c r="D3">
+      <c r="P3">
+        <v>46.103721510375664</v>
+      </c>
+      <c r="Q3">
+        <v>82.887262168178182</v>
+      </c>
+      <c r="R3">
+        <v>56.878669649006611</v>
+      </c>
+      <c r="S3">
+        <v>60.762346899605177</v>
+      </c>
+      <c r="T3">
+        <v>67.427925769814237</v>
+      </c>
+      <c r="U3">
+        <v>62.042670178917348</v>
+      </c>
+      <c r="V3">
+        <v>72.691656306894544</v>
+      </c>
+      <c r="W3">
+        <v>60.550521417270453</v>
+      </c>
+      <c r="X3">
+        <v>71.159263801451786</v>
+      </c>
+      <c r="Y3">
+        <v>31.248297691171782</v>
+      </c>
+      <c r="Z3">
+        <v>31.95032928271279</v>
+      </c>
+      <c r="AA3">
+        <v>51.851984914814949</v>
+      </c>
+      <c r="AB3">
+        <v>55.619691496553571</v>
+      </c>
+      <c r="AC3">
+        <v>66.079612749220161</v>
+      </c>
+      <c r="AD3">
+        <v>50.790168908277288</v>
+      </c>
+      <c r="AE3">
+        <v>65.5049150638025</v>
+      </c>
+      <c r="AF3">
+        <v>52.675325939474774</v>
+      </c>
+      <c r="AG3">
+        <v>69.427428618537917</v>
+      </c>
+      <c r="AH3">
+        <v>68.074445632761098</v>
+      </c>
+      <c r="AI3">
+        <v>52.603677401922646</v>
+      </c>
+      <c r="AJ3">
+        <v>48.884046349419577</v>
+      </c>
+      <c r="AK3">
+        <v>64.788043566174863</v>
+      </c>
+      <c r="AL3">
+        <v>55.840682494732398</v>
+      </c>
+      <c r="AM3">
         <v>32.907222192793327</v>
       </c>
-      <c r="E3">
+      <c r="AN3">
         <v>57.136207392154937</v>
       </c>
-      <c r="F3">
-        <v>76.301672241727246</v>
-      </c>
-      <c r="G3">
-        <v>68.974920215644602</v>
-      </c>
-      <c r="H3">
-        <v>79.267267301264894</v>
-      </c>
-      <c r="I3">
-        <v>84.519140287417997</v>
-      </c>
-      <c r="J3">
-        <v>64.533014293266461</v>
-      </c>
-      <c r="K3">
-        <v>69.839326440212346</v>
-      </c>
-      <c r="L3">
-        <v>71.777708629998287</v>
-      </c>
-      <c r="M3">
-        <v>75.297013797873518</v>
-      </c>
-      <c r="N3">
-        <v>69.666806284159478</v>
-      </c>
-      <c r="O3">
-        <v>42.657777528966953</v>
-      </c>
-      <c r="P3">
-        <v>42.112086423384348</v>
-      </c>
-      <c r="Q3">
-        <v>84.766129433738755</v>
-      </c>
-      <c r="R3">
-        <v>61.572680392127729</v>
-      </c>
-      <c r="S3">
-        <v>60.762346456054438</v>
-      </c>
-      <c r="T3">
-        <v>66.334715788126132</v>
-      </c>
-      <c r="U3">
-        <v>62.042669563442985</v>
-      </c>
-      <c r="V3">
-        <v>72.691659012545557</v>
-      </c>
-      <c r="W3">
-        <v>60.550521365306587</v>
-      </c>
-      <c r="X3">
-        <v>71.159263603234734</v>
-      </c>
-      <c r="Y3">
-        <v>31.248296971491342</v>
-      </c>
-      <c r="Z3">
-        <v>30.994613931163045</v>
-      </c>
-      <c r="AA3">
-        <v>51.85198474305286</v>
-      </c>
-      <c r="AB3">
-        <v>49.944779781239276</v>
-      </c>
-      <c r="AC3">
-        <v>66.079612270982309</v>
-      </c>
-      <c r="AD3">
-        <v>50.790168777649114</v>
-      </c>
-      <c r="AE3">
-        <v>61.923947413898837</v>
-      </c>
-      <c r="AF3">
-        <v>46.686087744816177</v>
-      </c>
-      <c r="AG3">
-        <v>69.427428418412731</v>
-      </c>
-      <c r="AH3">
-        <v>68.074445181833937</v>
-      </c>
-      <c r="AI3">
-        <v>52.60367705082205</v>
-      </c>
-      <c r="AJ3">
-        <v>48.884045903289191</v>
-      </c>
-      <c r="AK3">
-        <v>64.788043275744272</v>
-      </c>
-      <c r="AL3">
-        <v>56.761842147997278</v>
-      </c>
-      <c r="AM3">
-        <v>32.907221487752778</v>
-      </c>
-      <c r="AN3">
-        <v>57.136206998414082</v>
-      </c>
       <c r="AO3">
-        <v>17.664017949399678</v>
+        <v>20.636476094731773</v>
       </c>
       <c r="AP3">
-        <v>53.662181158456377</v>
+        <v>55.228223207317498</v>
       </c>
       <c r="AQ3">
-        <v>82.739096517336463</v>
+        <v>82.926792321616205</v>
       </c>
       <c r="AR3">
-        <v>66.219954919254747</v>
+        <v>66.219955308380833</v>
       </c>
       <c r="AS3">
-        <v>59.670509554358134</v>
+        <v>60.928698436617857</v>
       </c>
       <c r="AT3">
-        <v>47.103544596744435</v>
+        <v>47.103545223575274</v>
       </c>
       <c r="AU3">
-        <v>80.317508662379282</v>
+        <v>80.317508926369314</v>
       </c>
       <c r="AV3">
-        <v>55.815150853311557</v>
+        <v>55.815151361880766</v>
       </c>
       <c r="AW3">
-        <v>55.925143148699185</v>
+        <v>55.925143605607907</v>
       </c>
       <c r="AX3">
-        <v>69.539941493249799</v>
+        <v>69.539941757880712</v>
       </c>
       <c r="AY3">
-        <v>33.26895842529256</v>
+        <v>32.929679869084033</v>
       </c>
     </row>
   </sheetData>
